--- a/doc/alice/2018年6月训练营业绩清单s.xlsx
+++ b/doc/alice/2018年6月训练营业绩清单s.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="大热俱乐部" sheetId="11" r:id="rId1"/>
@@ -12,15 +12,15 @@
     <sheet name="FIT训练营" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AKcross训练营（28）'!$A$2:$H$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">大热俱乐部!$A$1:$L$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AKcross训练营（28）'!$A$2:$H$24</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="128">
   <si>
     <t>教练姓名</t>
   </si>
@@ -525,20 +525,54 @@
   <si>
     <t xml:space="preserve"> 彭扬，钟旭烜，庞楷俊，宋睿杰，吴钟至永，刘铠铭，张霆睿</t>
   </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180630</t>
+  </si>
+  <si>
+    <t>20180629</t>
+  </si>
+  <si>
+    <t>20180624</t>
+  </si>
+  <si>
+    <t>20180617</t>
+  </si>
+  <si>
+    <t>20180616</t>
+  </si>
+  <si>
+    <t>20180615</t>
+  </si>
+  <si>
+    <t>20180610</t>
+  </si>
+  <si>
+    <t>20180609</t>
+  </si>
+  <si>
+    <t>20180602</t>
+  </si>
+  <si>
+    <t>20180601</t>
+  </si>
+  <si>
+    <t>黄万瑞</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,152 +667,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.25"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -787,43 +691,42 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -833,156 +736,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1338,253 +1097,90 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1600,17 +1196,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1621,343 +1208,335 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2248,1130 +1827,1327 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="5.4" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="68.625" customWidth="1"/>
-    <col min="6" max="6" width="8" style="54" customWidth="1"/>
+    <col min="6" max="6" width="8" style="46" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="15.4" customWidth="1"/>
-    <col min="10" max="10" width="11.8666666666667"/>
-    <col min="11" max="11" width="10.4"/>
-    <col min="12" max="12" width="10.4666666666667" customWidth="1"/>
-    <col min="13" max="13" width="10.6" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="11.875"/>
+    <col min="11" max="11" width="10.375"/>
+    <col min="12" max="12" width="7.875" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="48" customHeight="1" spans="1:12">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="105"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="106"/>
-    </row>
-    <row r="2" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="79" t="s">
+      <c r="H1" s="65"/>
+      <c r="I1" s="92"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="93"/>
+    </row>
+    <row r="2" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="21">
         <v>43253.6875</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="66">
         <v>5</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="82">
+      <c r="F2" s="69">
         <v>300</v>
       </c>
-      <c r="G2" s="83"/>
-    </row>
-    <row r="3" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="79"/>
-      <c r="B3" s="26">
+      <c r="G2" s="108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="94"/>
+      <c r="B3" s="21">
         <v>43260.6875</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="66">
         <v>7</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="69">
         <v>300</v>
       </c>
-      <c r="G3" s="83"/>
-    </row>
-    <row r="4" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="79"/>
-      <c r="B4" s="26">
+      <c r="G3" s="108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="94"/>
+      <c r="B4" s="21">
         <v>43267.6875</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="66">
         <v>5</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="69">
         <v>300</v>
       </c>
-      <c r="G4" s="83"/>
-    </row>
-    <row r="5" s="77" customFormat="1" ht="16" customHeight="1" spans="1:7">
-      <c r="A5" s="79"/>
-      <c r="B5" s="84">
+      <c r="G4" s="108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="64" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A5" s="94"/>
+      <c r="B5" s="71">
         <v>43281.6875</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="73">
         <v>6</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="69">
         <v>300</v>
       </c>
-      <c r="G5" s="88"/>
-    </row>
-    <row r="6" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="G5" s="108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="21">
         <v>43253.6875</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="66">
         <v>5</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="69">
         <v>300</v>
       </c>
-      <c r="G6" s="83"/>
-    </row>
-    <row r="7" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="79"/>
-      <c r="B7" s="26">
+      <c r="G6" s="108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="94"/>
+      <c r="B7" s="21">
         <v>43260.6875</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="66">
         <v>6</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="69">
         <v>300</v>
       </c>
-      <c r="G7" s="83"/>
-    </row>
-    <row r="8" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A8" s="79"/>
-      <c r="B8" s="26">
+      <c r="G7" s="108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A8" s="94"/>
+      <c r="B8" s="21">
         <v>43267.6875</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="66">
         <v>2</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="69">
         <v>300</v>
       </c>
-      <c r="G8" s="83"/>
-    </row>
-    <row r="9" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="79"/>
-      <c r="B9" s="84">
+      <c r="G8" s="108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="94"/>
+      <c r="B9" s="71">
         <v>43281.6875</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="73">
         <v>3</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="69">
         <v>300</v>
       </c>
-      <c r="G9" s="88"/>
-    </row>
-    <row r="10" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="G9" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="113"/>
+    </row>
+    <row r="10" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="26">
-        <v>43252.7916666667</v>
-      </c>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="21">
+        <v>43252.791666666701</v>
+      </c>
+      <c r="C10" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="77">
         <v>5</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="69">
         <f t="shared" ref="F10:F18" si="0">100+25*D10</f>
         <v>225</v>
       </c>
-      <c r="G10" s="83"/>
-    </row>
-    <row r="11" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="79"/>
-      <c r="B11" s="26">
+      <c r="G10" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="115">
+        <v>100</v>
+      </c>
+      <c r="J10" s="115">
+        <v>125</v>
+      </c>
+      <c r="K10" s="116">
+        <f>I10+J10</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="94"/>
+      <c r="B11" s="21">
         <v>43253.4375</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="77">
         <v>4</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F11" s="69">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G11" s="83"/>
-    </row>
-    <row r="12" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A12" s="79"/>
-      <c r="B12" s="26">
-        <v>43253.7083333333</v>
-      </c>
-      <c r="C12" s="90" t="s">
+      <c r="G11" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="115">
+        <v>100</v>
+      </c>
+      <c r="J11" s="115">
+        <v>150</v>
+      </c>
+      <c r="K11" s="116">
+        <f>I11+J11</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="94"/>
+      <c r="B12" s="21">
+        <v>43253.708333333299</v>
+      </c>
+      <c r="C12" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="77">
         <v>6</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="69">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="G12" s="83"/>
-    </row>
-    <row r="13" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="79"/>
-      <c r="B13" s="26">
-        <v>43261.3541666667</v>
-      </c>
-      <c r="C13" s="90" t="s">
+      <c r="G12" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="115">
+        <v>100</v>
+      </c>
+      <c r="J12" s="115">
+        <v>100</v>
+      </c>
+      <c r="K12" s="116">
+        <f>I12+J12</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="94"/>
+      <c r="B13" s="21">
+        <v>43261.354166666701</v>
+      </c>
+      <c r="C13" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="77">
         <v>3</v>
       </c>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="82">
+      <c r="F13" s="69">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="G13" s="83"/>
-    </row>
-    <row r="14" s="77" customFormat="1" ht="31" customHeight="1" spans="1:7">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
+      <c r="G13" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="118">
+        <v>100</v>
+      </c>
+      <c r="J13" s="118">
+        <v>100</v>
+      </c>
+      <c r="K13" s="119">
+        <f>I13+J13</f>
+        <v>200</v>
+      </c>
+      <c r="L13" s="64">
+        <v>950</v>
+      </c>
+      <c r="M13" s="64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="64" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A14" s="94"/>
+      <c r="B14" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="78">
         <v>15</v>
       </c>
-      <c r="E14" s="92" t="s">
+      <c r="E14" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="69">
         <f t="shared" si="0"/>
         <v>475</v>
       </c>
-      <c r="G14" s="88"/>
-    </row>
-    <row r="15" s="77" customFormat="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A15" s="79"/>
-      <c r="B15" s="26">
-        <v>43268.3541666667</v>
-      </c>
-      <c r="C15" s="90" t="s">
+      <c r="G14" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="115">
+        <v>100</v>
+      </c>
+      <c r="J14" s="115">
+        <v>75</v>
+      </c>
+      <c r="K14" s="116">
+        <f>I14+J14</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="64" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="94"/>
+      <c r="B15" s="21">
+        <v>43268.354166666701</v>
+      </c>
+      <c r="C15" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="77">
         <v>5</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="82">
+      <c r="F15" s="69">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="G15" s="83"/>
-    </row>
-    <row r="16" s="77" customFormat="1" ht="19" customHeight="1" spans="1:7">
-      <c r="A16" s="79"/>
-      <c r="B16" s="84">
-        <v>43275.3541666667</v>
-      </c>
-      <c r="C16" s="91" t="s">
+      <c r="G15" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="115">
+        <v>100</v>
+      </c>
+      <c r="J15" s="115">
+        <v>375</v>
+      </c>
+      <c r="K15" s="116">
+        <f>I15+J15</f>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="64" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A16" s="94"/>
+      <c r="B16" s="71">
+        <v>43275.354166666701</v>
+      </c>
+      <c r="C16" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="91">
+      <c r="D16" s="78">
         <v>7</v>
       </c>
-      <c r="E16" s="92" t="s">
+      <c r="E16" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="69">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="G16" s="88"/>
-    </row>
-    <row r="17" s="77" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A17" s="79"/>
-      <c r="B17" s="84">
-        <v>43280.7916666667</v>
-      </c>
-      <c r="C17" s="85" t="s">
+      <c r="G16" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="118">
+        <v>100</v>
+      </c>
+      <c r="J16" s="118">
+        <v>100</v>
+      </c>
+      <c r="K16" s="119">
+        <f>I16+J16</f>
+        <v>200</v>
+      </c>
+      <c r="L16" s="64">
+        <v>951</v>
+      </c>
+      <c r="M16" s="64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="64" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="94"/>
+      <c r="B17" s="71">
+        <v>43280.791666666701</v>
+      </c>
+      <c r="C17" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="73">
         <v>11</v>
       </c>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="69">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="G17" s="88"/>
-    </row>
-    <row r="18" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A18" s="79"/>
-      <c r="B18" s="84">
-        <v>43281.7083333333</v>
-      </c>
-      <c r="C18" s="85" t="s">
+      <c r="G17" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="115">
+        <v>100</v>
+      </c>
+      <c r="J17" s="115">
+        <v>125</v>
+      </c>
+      <c r="K17" s="116">
+        <f>I17+J17</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="94"/>
+      <c r="B18" s="71">
+        <v>43281.708333333299</v>
+      </c>
+      <c r="C18" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="73">
         <v>8</v>
       </c>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="82">
+      <c r="F18" s="69">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G18" s="88"/>
-    </row>
-    <row r="19" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="79" t="s">
+      <c r="G18" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="118">
+        <v>100</v>
+      </c>
+      <c r="J18" s="118">
+        <v>175</v>
+      </c>
+      <c r="K18" s="119">
+        <f>I18+J18</f>
+        <v>275</v>
+      </c>
+      <c r="L18" s="64">
+        <v>909</v>
+      </c>
+      <c r="M18" s="64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="26">
-        <v>43252.7916666667</v>
-      </c>
-      <c r="C19" s="90" t="s">
+      <c r="B19" s="21">
+        <v>43252.791666666701</v>
+      </c>
+      <c r="C19" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19" s="77">
         <v>2</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="69">
         <v>177</v>
       </c>
-      <c r="G19" s="83"/>
-    </row>
-    <row r="20" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A20" s="79"/>
-      <c r="B20" s="26">
-        <v>43253.7083333333</v>
-      </c>
-      <c r="C20" s="90" t="s">
+      <c r="G19" s="109"/>
+      <c r="H19" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="115">
+        <v>100</v>
+      </c>
+      <c r="J19" s="115">
+        <v>275</v>
+      </c>
+      <c r="K19" s="116">
+        <f>I19+J19</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="94"/>
+      <c r="B20" s="21">
+        <v>43253.708333333299</v>
+      </c>
+      <c r="C20" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="77">
         <v>8</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="82">
+      <c r="F20" s="69">
         <f>100+25*D20</f>
         <v>300</v>
       </c>
-      <c r="G20" s="83"/>
-    </row>
-    <row r="21" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="79"/>
-      <c r="B21" s="26">
-        <v>43253.7708333333</v>
-      </c>
-      <c r="C21" s="90" t="s">
+      <c r="G20" s="109"/>
+      <c r="H20" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="121">
+        <v>100</v>
+      </c>
+      <c r="J20" s="121">
+        <v>200</v>
+      </c>
+      <c r="K20" s="122">
+        <f>I20+J20</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="94"/>
+      <c r="B21" s="21">
+        <v>43253.770833333299</v>
+      </c>
+      <c r="C21" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="77">
         <v>4</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="69">
         <f>100+25*D21</f>
         <v>200</v>
       </c>
-      <c r="G21" s="83"/>
-    </row>
-    <row r="22" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A22" s="79"/>
-      <c r="B22" s="26">
-        <v>43259.7916666667</v>
-      </c>
-      <c r="C22" s="90" t="s">
+      <c r="G21" s="70"/>
+    </row>
+    <row r="22" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="94"/>
+      <c r="B22" s="21">
+        <v>43259.791666666701</v>
+      </c>
+      <c r="C22" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="77">
         <v>2</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="82">
+      <c r="F22" s="69">
         <v>177</v>
       </c>
-      <c r="G22" s="83"/>
-    </row>
-    <row r="23" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="79"/>
-      <c r="B23" s="26">
-        <v>43254.7083333333</v>
-      </c>
-      <c r="C23" s="90" t="s">
+      <c r="G22" s="70"/>
+    </row>
+    <row r="23" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="94"/>
+      <c r="B23" s="21">
+        <v>43254.708333333299</v>
+      </c>
+      <c r="C23" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="77">
         <v>9</v>
       </c>
-      <c r="E23" s="89" t="s">
+      <c r="E23" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="82">
+      <c r="F23" s="69">
         <f t="shared" ref="F23:F28" si="1">100+25*D23</f>
         <v>325</v>
       </c>
-      <c r="G23" s="83"/>
-    </row>
-    <row r="24" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A24" s="79"/>
-      <c r="B24" s="26">
-        <v>43254.4166666667</v>
-      </c>
-      <c r="C24" s="90" t="s">
+      <c r="G23" s="70"/>
+    </row>
+    <row r="24" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="94"/>
+      <c r="B24" s="21">
+        <v>43254.416666666701</v>
+      </c>
+      <c r="C24" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="77">
         <v>4</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="82">
+      <c r="F24" s="69">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="G24" s="83"/>
-    </row>
-    <row r="25" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="79"/>
-      <c r="B25" s="26">
-        <v>43254.3333333333</v>
-      </c>
-      <c r="C25" s="90" t="s">
+      <c r="G24" s="70"/>
+    </row>
+    <row r="25" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="94"/>
+      <c r="B25" s="21">
+        <v>43254.333333333299</v>
+      </c>
+      <c r="C25" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="77">
         <v>4</v>
       </c>
-      <c r="E25" s="89" t="s">
+      <c r="E25" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="82">
+      <c r="F25" s="69">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="G25" s="83"/>
-    </row>
-    <row r="26" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A26" s="79"/>
-      <c r="B26" s="26">
-        <v>43260.7708333333</v>
-      </c>
-      <c r="C26" s="90" t="s">
+      <c r="G25" s="70"/>
+    </row>
+    <row r="26" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="94"/>
+      <c r="B26" s="21">
+        <v>43260.770833333299</v>
+      </c>
+      <c r="C26" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="77">
         <v>4</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F26" s="69">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="G26" s="83"/>
-    </row>
-    <row r="27" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="79"/>
-      <c r="B27" s="26">
-        <v>43260.7083333333</v>
-      </c>
-      <c r="C27" s="90" t="s">
+      <c r="G26" s="70"/>
+    </row>
+    <row r="27" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="94"/>
+      <c r="B27" s="21">
+        <v>43260.708333333299</v>
+      </c>
+      <c r="C27" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="77">
         <v>4</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="82">
+      <c r="F27" s="69">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="G27" s="83"/>
-    </row>
-    <row r="28" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A28" s="79"/>
-      <c r="B28" s="26">
-        <v>43261.3333333333</v>
-      </c>
-      <c r="C28" s="90" t="s">
+      <c r="G27" s="70"/>
+    </row>
+    <row r="28" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="94"/>
+      <c r="B28" s="21">
+        <v>43261.333333333299</v>
+      </c>
+      <c r="C28" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="77">
         <v>5</v>
       </c>
-      <c r="E28" s="81" t="s">
+      <c r="E28" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="82">
+      <c r="F28" s="69">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="G28" s="83"/>
-    </row>
-    <row r="29" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A29" s="79"/>
-      <c r="B29" s="26">
-        <v>43266.7916666667</v>
-      </c>
-      <c r="C29" s="90" t="s">
+      <c r="G28" s="70"/>
+    </row>
+    <row r="29" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="94"/>
+      <c r="B29" s="21">
+        <v>43266.791666666701</v>
+      </c>
+      <c r="C29" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="90">
+      <c r="D29" s="77">
         <v>2</v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="82">
+      <c r="F29" s="69">
         <v>177</v>
       </c>
-      <c r="G29" s="83"/>
-    </row>
-    <row r="30" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A30" s="79"/>
-      <c r="B30" s="26">
-        <v>43261.7083333333</v>
-      </c>
-      <c r="C30" s="80" t="s">
+      <c r="G29" s="70"/>
+    </row>
+    <row r="30" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="94"/>
+      <c r="B30" s="21">
+        <v>43261.708333333299</v>
+      </c>
+      <c r="C30" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="90">
+      <c r="D30" s="77">
         <v>11</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="82">
+      <c r="F30" s="69">
         <f t="shared" ref="F30:F40" si="2">100+25*D30</f>
         <v>375</v>
       </c>
-      <c r="G30" s="83"/>
-    </row>
-    <row r="31" s="77" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A31" s="79"/>
-      <c r="B31" s="26">
-        <v>43261.4166666667</v>
-      </c>
-      <c r="C31" s="90" t="s">
+      <c r="G30" s="70"/>
+    </row>
+    <row r="31" spans="1:13" s="64" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="94"/>
+      <c r="B31" s="21">
+        <v>43261.416666666701</v>
+      </c>
+      <c r="C31" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="90">
+      <c r="D31" s="77">
         <v>5</v>
       </c>
-      <c r="E31" s="89" t="s">
+      <c r="E31" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="82">
+      <c r="F31" s="69">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="G31" s="83"/>
-    </row>
-    <row r="32" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A32" s="79"/>
-      <c r="B32" s="26">
-        <v>43268.3333333333</v>
-      </c>
-      <c r="C32" s="90" t="s">
+      <c r="G31" s="70"/>
+    </row>
+    <row r="32" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="94"/>
+      <c r="B32" s="21">
+        <v>43268.333333333299</v>
+      </c>
+      <c r="C32" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="90">
+      <c r="D32" s="77">
         <v>4</v>
       </c>
-      <c r="E32" s="81" t="s">
+      <c r="E32" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="82">
+      <c r="F32" s="69">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G32" s="83"/>
-    </row>
-    <row r="33" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A33" s="79"/>
-      <c r="B33" s="26">
-        <v>43267.7708333333</v>
-      </c>
-      <c r="C33" s="90" t="s">
+      <c r="G32" s="70"/>
+    </row>
+    <row r="33" spans="1:7" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="94"/>
+      <c r="B33" s="21">
+        <v>43267.770833333299</v>
+      </c>
+      <c r="C33" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="90">
+      <c r="D33" s="77">
         <v>3</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="82">
+      <c r="F33" s="69">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="G33" s="83"/>
-    </row>
-    <row r="34" s="77" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A34" s="79"/>
-      <c r="B34" s="26">
-        <v>43267.7083333333</v>
-      </c>
-      <c r="C34" s="90" t="s">
+      <c r="G33" s="70"/>
+    </row>
+    <row r="34" spans="1:7" s="64" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="94"/>
+      <c r="B34" s="21">
+        <v>43267.708333333299</v>
+      </c>
+      <c r="C34" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="90">
+      <c r="D34" s="77">
         <v>4</v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="82">
+      <c r="F34" s="69">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G34" s="83"/>
-    </row>
-    <row r="35" s="77" customFormat="1" ht="19" customHeight="1" spans="1:7">
-      <c r="A35" s="79"/>
-      <c r="B35" s="26">
-        <v>43269.5569444444</v>
-      </c>
-      <c r="C35" s="90" t="s">
+      <c r="G34" s="70"/>
+    </row>
+    <row r="35" spans="1:7" s="64" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A35" s="94"/>
+      <c r="B35" s="21">
+        <v>43269.556944444397</v>
+      </c>
+      <c r="C35" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="90">
+      <c r="D35" s="77">
         <v>1</v>
       </c>
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="82">
+      <c r="F35" s="69">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="G35" s="83"/>
-    </row>
-    <row r="36" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A36" s="79"/>
-      <c r="B36" s="26">
-        <v>43274.7708333333</v>
-      </c>
-      <c r="C36" s="90" t="s">
+      <c r="G35" s="70"/>
+    </row>
+    <row r="36" spans="1:7" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="94"/>
+      <c r="B36" s="21">
+        <v>43274.770833333299</v>
+      </c>
+      <c r="C36" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="90">
+      <c r="D36" s="77">
         <v>3</v>
       </c>
-      <c r="E36" s="81" t="s">
+      <c r="E36" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="82">
+      <c r="F36" s="69">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="G36" s="83"/>
-    </row>
-    <row r="37" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A37" s="79"/>
-      <c r="B37" s="84">
-        <v>43275.3333333333</v>
-      </c>
-      <c r="C37" s="91" t="s">
+      <c r="G36" s="70"/>
+    </row>
+    <row r="37" spans="1:7" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="94"/>
+      <c r="B37" s="71">
+        <v>43275.333333333299</v>
+      </c>
+      <c r="C37" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="91">
+      <c r="D37" s="78">
         <v>3</v>
       </c>
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="82">
+      <c r="F37" s="69">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="G37" s="88"/>
-    </row>
-    <row r="38" s="77" customFormat="1" ht="19" customHeight="1" spans="1:7">
-      <c r="A38" s="79"/>
-      <c r="B38" s="26">
-        <v>43275.4166666667</v>
-      </c>
-      <c r="C38" s="90" t="s">
+      <c r="G37" s="75"/>
+    </row>
+    <row r="38" spans="1:7" s="64" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A38" s="94"/>
+      <c r="B38" s="21">
+        <v>43275.416666666701</v>
+      </c>
+      <c r="C38" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="90">
+      <c r="D38" s="77">
         <v>5</v>
       </c>
-      <c r="E38" s="81" t="s">
+      <c r="E38" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="82">
+      <c r="F38" s="69">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="G38" s="93"/>
-    </row>
-    <row r="39" s="77" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A39" s="79"/>
-      <c r="B39" s="26">
-        <v>43275.7083333333</v>
-      </c>
-      <c r="C39" s="90" t="s">
+      <c r="G38" s="80"/>
+    </row>
+    <row r="39" spans="1:7" s="64" customFormat="1" ht="18" customHeight="1">
+      <c r="A39" s="94"/>
+      <c r="B39" s="21">
+        <v>43275.708333333299</v>
+      </c>
+      <c r="C39" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="90">
+      <c r="D39" s="77">
         <v>9</v>
       </c>
-      <c r="E39" s="81" t="s">
+      <c r="E39" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="82">
+      <c r="F39" s="69">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>
-      <c r="G39" s="93"/>
-    </row>
-    <row r="40" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A40" s="79"/>
-      <c r="B40" s="26">
-        <v>43276.5965277778</v>
-      </c>
-      <c r="C40" s="90" t="s">
+      <c r="G39" s="80"/>
+    </row>
+    <row r="40" spans="1:7" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="94"/>
+      <c r="B40" s="21">
+        <v>43276.596527777801</v>
+      </c>
+      <c r="C40" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="90">
+      <c r="D40" s="77">
         <v>2</v>
       </c>
-      <c r="E40" s="81" t="s">
+      <c r="E40" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="82">
+      <c r="F40" s="69">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G40" s="93"/>
-    </row>
-    <row r="41" s="77" customFormat="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A41" s="79"/>
-      <c r="B41" s="26">
-        <v>43280.7916666667</v>
-      </c>
-      <c r="C41" s="90" t="s">
+      <c r="G40" s="80"/>
+    </row>
+    <row r="41" spans="1:7" s="64" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="94"/>
+      <c r="B41" s="21">
+        <v>43280.791666666701</v>
+      </c>
+      <c r="C41" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="90">
+      <c r="D41" s="77">
         <v>2</v>
       </c>
-      <c r="E41" s="81" t="s">
+      <c r="E41" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="82">
+      <c r="F41" s="69">
         <v>177</v>
       </c>
-      <c r="G41" s="93"/>
-    </row>
-    <row r="42" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A42" s="79"/>
-      <c r="B42" s="84">
-        <v>43281.7708333333</v>
-      </c>
-      <c r="C42" s="91" t="s">
+      <c r="G41" s="80"/>
+    </row>
+    <row r="42" spans="1:7" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="94"/>
+      <c r="B42" s="71">
+        <v>43281.770833333299</v>
+      </c>
+      <c r="C42" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="91">
+      <c r="D42" s="78">
         <v>4</v>
       </c>
-      <c r="E42" s="87" t="s">
+      <c r="E42" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="82">
+      <c r="F42" s="69">
         <f t="shared" ref="F42:F51" si="3">100+25*D42</f>
         <v>200</v>
       </c>
-      <c r="G42" s="93"/>
-    </row>
-    <row r="43" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A43" s="79"/>
-      <c r="B43" s="84">
-        <v>43281.7083333333</v>
-      </c>
-      <c r="C43" s="91" t="s">
+      <c r="G42" s="80"/>
+    </row>
+    <row r="43" spans="1:7" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="94"/>
+      <c r="B43" s="71">
+        <v>43281.708333333299</v>
+      </c>
+      <c r="C43" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="91">
+      <c r="D43" s="78">
         <v>5</v>
       </c>
-      <c r="E43" s="87" t="s">
+      <c r="E43" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="82">
+      <c r="F43" s="69">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="G43" s="93"/>
-    </row>
-    <row r="44" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A44" s="79" t="s">
+      <c r="G43" s="80"/>
+    </row>
+    <row r="44" spans="1:7" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="84">
+      <c r="B44" s="71">
         <v>43281.34375</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="91">
+      <c r="D44" s="78">
         <v>3</v>
       </c>
-      <c r="E44" s="87" t="s">
+      <c r="E44" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="82">
+      <c r="F44" s="69">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="G44" s="93"/>
-    </row>
-    <row r="45" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A45" s="79"/>
-      <c r="B45" s="26">
-        <v>43275.3333333333</v>
-      </c>
-      <c r="C45" s="80" t="s">
+      <c r="G44" s="80"/>
+    </row>
+    <row r="45" spans="1:7" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="94"/>
+      <c r="B45" s="21">
+        <v>43275.333333333299</v>
+      </c>
+      <c r="C45" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="90">
+      <c r="D45" s="77">
         <v>5</v>
       </c>
-      <c r="E45" s="81" t="s">
+      <c r="E45" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="82">
+      <c r="F45" s="69">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="G45" s="94"/>
-    </row>
-    <row r="46" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A46" s="79"/>
-      <c r="B46" s="26">
-        <v>43273.8333333333</v>
-      </c>
-      <c r="C46" s="80" t="s">
+      <c r="G45" s="81"/>
+    </row>
+    <row r="46" spans="1:7" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="94"/>
+      <c r="B46" s="21">
+        <v>43273.833333333299</v>
+      </c>
+      <c r="C46" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="90">
+      <c r="D46" s="77">
         <v>3</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="82">
+      <c r="F46" s="69">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="G46" s="94"/>
-    </row>
-    <row r="47" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A47" s="79"/>
-      <c r="B47" s="26">
+      <c r="G46" s="81"/>
+    </row>
+    <row r="47" spans="1:7" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="94"/>
+      <c r="B47" s="21">
         <v>43267.34375</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="90">
+      <c r="D47" s="77">
         <v>7</v>
       </c>
-      <c r="E47" s="81" t="s">
+      <c r="E47" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="82">
+      <c r="F47" s="69">
         <f t="shared" si="3"/>
         <v>275</v>
       </c>
-      <c r="G47" s="94"/>
-    </row>
-    <row r="48" s="77" customFormat="1" ht="19" customHeight="1" spans="1:7">
-      <c r="A48" s="79"/>
-      <c r="B48" s="26">
-        <v>43266.8333333333</v>
-      </c>
-      <c r="C48" s="80" t="s">
+      <c r="G47" s="81"/>
+    </row>
+    <row r="48" spans="1:7" s="64" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A48" s="94"/>
+      <c r="B48" s="21">
+        <v>43266.833333333299</v>
+      </c>
+      <c r="C48" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="90">
+      <c r="D48" s="77">
         <v>5</v>
       </c>
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="82">
+      <c r="F48" s="69">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="G48" s="94"/>
-    </row>
-    <row r="49" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A49" s="79"/>
-      <c r="B49" s="26">
-        <v>43261.3333333333</v>
-      </c>
-      <c r="C49" s="80" t="s">
+      <c r="G48" s="81"/>
+    </row>
+    <row r="49" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="94"/>
+      <c r="B49" s="21">
+        <v>43261.333333333299</v>
+      </c>
+      <c r="C49" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="90">
+      <c r="D49" s="77">
         <v>5</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="82">
+      <c r="F49" s="69">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="G49" s="94"/>
-    </row>
-    <row r="50" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A50" s="79"/>
-      <c r="B50" s="26">
-        <v>43254.3333333333</v>
-      </c>
-      <c r="C50" s="80" t="s">
+      <c r="G49" s="81"/>
+    </row>
+    <row r="50" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="94"/>
+      <c r="B50" s="21">
+        <v>43254.333333333299</v>
+      </c>
+      <c r="C50" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="90">
+      <c r="D50" s="77">
         <v>4</v>
       </c>
-      <c r="E50" s="81" t="s">
+      <c r="E50" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="82">
+      <c r="F50" s="69">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="G50" s="94"/>
-    </row>
-    <row r="51" s="77" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A51" s="79"/>
-      <c r="B51" s="26">
-        <v>43252.8333333333</v>
-      </c>
-      <c r="C51" s="80" t="s">
+      <c r="G50" s="81"/>
+    </row>
+    <row r="51" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="94"/>
+      <c r="B51" s="21">
+        <v>43252.833333333299</v>
+      </c>
+      <c r="C51" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="90">
+      <c r="D51" s="77">
         <v>4</v>
       </c>
-      <c r="E51" s="81" t="s">
+      <c r="E51" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="F51" s="82">
+      <c r="F51" s="69">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="G51" s="94"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A52" s="95" t="s">
+      <c r="G51" s="81"/>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="96"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="42">
+      <c r="B52" s="83"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="34">
         <f>SUM(D2:D51)</f>
         <v>248</v>
       </c>
-      <c r="E52" s="43"/>
-      <c r="F52" s="98">
+      <c r="E52" s="35"/>
+      <c r="F52" s="85">
         <f>SUM(F2:F51)</f>
         <v>11933</v>
       </c>
-      <c r="G52" s="44"/>
-      <c r="H52" s="99"/>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="21" customHeight="1" spans="5:6">
-      <c r="E53" s="70"/>
-      <c r="F53" s="100"/>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="16.5" spans="5:6">
-      <c r="E54" s="101"/>
-      <c r="F54" s="100"/>
-    </row>
-    <row r="55" ht="16.5" spans="5:7">
-      <c r="E55" s="102"/>
-      <c r="G55" s="47"/>
-    </row>
-    <row r="56" ht="16.5" spans="5:7">
-      <c r="E56" s="103"/>
-      <c r="G56" s="47"/>
-    </row>
-    <row r="57" ht="16.5" spans="5:7">
-      <c r="E57" s="45"/>
-      <c r="G57" s="47"/>
-    </row>
-    <row r="58" ht="16.5" spans="5:7">
-      <c r="E58" s="104"/>
-      <c r="G58" s="49"/>
-    </row>
-    <row r="59" ht="16.5" spans="5:7">
-      <c r="E59" s="104"/>
-      <c r="G59" s="47"/>
-    </row>
-    <row r="60" ht="16.5" spans="7:7">
-      <c r="G60" s="47"/>
-    </row>
-    <row r="61" ht="16.5" spans="7:7">
-      <c r="G61" s="47"/>
-    </row>
-    <row r="62" ht="16.5" spans="7:7">
-      <c r="G62" s="47"/>
-    </row>
-    <row r="63" ht="16.5" spans="7:7">
-      <c r="G63" s="47"/>
-    </row>
-    <row r="64" ht="18" spans="7:7">
-      <c r="G64" s="50"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="86"/>
+    </row>
+    <row r="53" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="E53" s="57"/>
+      <c r="F53" s="87"/>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="16.5">
+      <c r="E54" s="88"/>
+      <c r="F54" s="87"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5">
+      <c r="E55" s="89"/>
+      <c r="G55" s="39"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5">
+      <c r="E56" s="90"/>
+      <c r="G56" s="39"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5">
+      <c r="E57" s="37"/>
+      <c r="G57" s="39"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5">
+      <c r="E58" s="91"/>
+      <c r="G58" s="41"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5">
+      <c r="E59" s="91"/>
+      <c r="G59" s="39"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.5">
+      <c r="G60" s="39"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5">
+      <c r="G61" s="39"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5">
+      <c r="G62" s="39"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.5">
+      <c r="G63" s="39"/>
+    </row>
+    <row r="64" spans="1:8" ht="18">
+      <c r="G64" s="42"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="51"/>
+      <c r="G65" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L52">
-    <sortState ref="A1:L52">
-      <sortCondition ref="B1" descending="1"/>
-    </sortState>
     <extLst/>
   </autoFilter>
   <mergeCells count="5">
@@ -3381,18 +3157,17 @@
     <mergeCell ref="A19:A43"/>
     <mergeCell ref="A44:A51"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -3401,635 +3176,635 @@
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="5.4" customWidth="1"/>
-    <col min="5" max="5" width="60" style="54" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="60" style="46" customWidth="1"/>
     <col min="6" max="7" width="7.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="48" customHeight="1" spans="1:8">
-      <c r="A2" s="56" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A2" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A3" s="61" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="26">
-        <v>43259.7083333333</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="21">
+        <v>43259.708333333299</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="18">
         <v>5</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="22">
         <f>D3*83</f>
         <v>415</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="22">
         <f>F3*0.8</f>
         <v>332</v>
       </c>
-      <c r="H3" s="63"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A4" s="61"/>
-      <c r="B4" s="26">
-        <v>43264.7083333333</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="H3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="100"/>
+      <c r="B4" s="21">
+        <v>43264.708333333299</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="18">
         <v>3</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="22">
         <f>D4*83</f>
         <v>249</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="22">
         <f>F4*0.8</f>
         <v>199.2</v>
       </c>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A5" s="61"/>
-      <c r="B5" s="26">
-        <v>43271.7291666667</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="100"/>
+      <c r="B5" s="21">
+        <v>43271.729166666701</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="18">
         <v>3</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="22">
         <f>D5*83</f>
         <v>249</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="22">
         <f>F5*0.8</f>
         <v>199.2</v>
       </c>
-      <c r="H5" s="63"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="19.05" customHeight="1" spans="1:8">
-      <c r="A6" s="64" t="s">
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A6" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="21">
         <v>43253.625</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="18">
         <v>5</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="22">
         <f>D6*88</f>
         <v>440</v>
       </c>
-      <c r="G6" s="27">
-        <f t="shared" ref="G6:G24" si="0">F6*0.8</f>
+      <c r="G6" s="22">
+        <f t="shared" ref="G6:G22" si="0">F6*0.8</f>
         <v>352</v>
       </c>
-      <c r="H6" s="63"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A7" s="61"/>
-      <c r="B7" s="26">
-        <v>43254.7083333333</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="100"/>
+      <c r="B7" s="21">
+        <v>43254.708333333299</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="18">
         <v>1</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="27">
-        <f t="shared" ref="F7:F16" si="1">D7*88</f>
+      <c r="F7" s="22">
+        <f t="shared" ref="F7:F15" si="1">D7*88</f>
         <v>88</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="22">
         <f t="shared" si="0"/>
-        <v>70.4</v>
-      </c>
-      <c r="H7" s="63"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A8" s="61"/>
-      <c r="B8" s="26">
-        <v>43258.6666666667</v>
-      </c>
-      <c r="C8" s="29" t="s">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="100"/>
+      <c r="B8" s="21">
+        <v>43258.666666666701</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="18">
         <v>5</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="22">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="22">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="H8" s="63"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A9" s="61"/>
-      <c r="B9" s="26">
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="100"/>
+      <c r="B9" s="21">
         <v>43260.625</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="18">
         <v>7</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="22">
         <f t="shared" si="1"/>
         <v>616</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="22">
         <f>F9*0.8</f>
         <v>492.8</v>
       </c>
-      <c r="H9" s="63"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A10" s="61"/>
-      <c r="B10" s="26">
-        <v>43266.6666666667</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="100"/>
+      <c r="B10" s="21">
+        <v>43266.666666666701</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="18">
         <v>7</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="22">
         <f t="shared" si="1"/>
         <v>616</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="22">
         <f t="shared" si="0"/>
         <v>492.8</v>
       </c>
-      <c r="H10" s="63"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A11" s="61"/>
-      <c r="B11" s="26">
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="100"/>
+      <c r="B11" s="21">
         <v>43267.625</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="18">
         <v>8</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="22">
         <f t="shared" si="1"/>
         <v>704</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="22">
         <f t="shared" si="0"/>
-        <v>563.2</v>
-      </c>
-      <c r="H11" s="63"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="18" customHeight="1" spans="1:11">
-      <c r="A12" s="61"/>
-      <c r="B12" s="26">
+        <v>563.20000000000005</v>
+      </c>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="100"/>
+      <c r="B12" s="21">
         <v>43272.6875</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="18">
         <v>7</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="22">
         <f t="shared" si="1"/>
         <v>616</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="22">
         <f t="shared" si="0"/>
         <v>492.8</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A13" s="61"/>
-      <c r="B13" s="26">
+      <c r="H12" s="53"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="100"/>
+      <c r="B13" s="21">
         <v>43279.4375</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="18">
         <v>1</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="22">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="22">
         <f t="shared" si="0"/>
-        <v>70.4</v>
-      </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="76"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="20" customHeight="1" spans="1:11">
-      <c r="A14" s="61"/>
-      <c r="B14" s="26">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="63"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="100"/>
+      <c r="B14" s="21">
         <v>43279.6875</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="18">
         <v>7</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="22">
         <f t="shared" si="1"/>
         <v>616</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="22">
         <f t="shared" si="0"/>
         <v>492.8</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="76"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A15" s="61"/>
-      <c r="B15" s="26">
+      <c r="H14" s="53"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="63"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="100"/>
+      <c r="B15" s="21">
         <v>43281.625</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="18">
         <v>6</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="22">
         <f t="shared" si="1"/>
         <v>528</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="22">
         <f t="shared" si="0"/>
         <v>422.4</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="76"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A16" s="61" t="s">
+      <c r="H15" s="53"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="63"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="21">
         <v>43254.4375</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="18">
         <v>4</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="29">
-        <f t="shared" ref="F16:F23" si="2">D16*100</f>
+      <c r="F16" s="24">
+        <f t="shared" ref="F16:F22" si="2">D16*100</f>
         <v>400</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="24">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A17" s="61"/>
-      <c r="B17" s="26">
-        <v>43254.5833333333</v>
-      </c>
-      <c r="C17" s="29" t="s">
+      <c r="H16" s="53"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="100"/>
+      <c r="B17" s="21">
+        <v>43254.583333333299</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="18">
         <v>7</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="24">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="24">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A18" s="61"/>
-      <c r="B18" s="26">
+      <c r="H17" s="53"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="100"/>
+      <c r="B18" s="21">
         <v>43261.4375</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="18">
         <v>7</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="24">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="24">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A19" s="61"/>
-      <c r="B19" s="26">
-        <v>43261.5833333333</v>
-      </c>
-      <c r="C19" s="29" t="s">
+      <c r="H18" s="53"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="100"/>
+      <c r="B19" s="21">
+        <v>43261.583333333299</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="18">
         <v>7</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="24">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="24">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="H19" s="63"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A20" s="61"/>
-      <c r="B20" s="26">
+      <c r="H19" s="53"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="100"/>
+      <c r="B20" s="21">
         <v>43268.4375</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="18">
         <v>5</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="24">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="24">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A21" s="61"/>
-      <c r="B21" s="26">
-        <v>43268.5833333333</v>
-      </c>
-      <c r="C21" s="29" t="s">
+      <c r="H20" s="53"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="100"/>
+      <c r="B21" s="21">
+        <v>43268.583333333299</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="18">
         <v>4</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="24">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="24">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A22" s="61"/>
-      <c r="B22" s="26">
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="100"/>
+      <c r="B22" s="21">
         <v>43275.4375</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="18">
         <v>5</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="24">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="24">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="17.25" spans="1:8">
-      <c r="A23" s="65" t="s">
+      <c r="H22" s="53"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="16.5">
+      <c r="A23" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="57">
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="48">
         <f>SUM(D3:D22)</f>
         <v>104</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68">
+      <c r="E23" s="54"/>
+      <c r="F23" s="55">
         <f>SUM(F3:F22)</f>
         <v>9565</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="55">
         <f>SUM(G3:G22)</f>
         <v>7652</v>
       </c>
-      <c r="H23" s="69"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="21" customHeight="1" spans="5:7">
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="16.5" spans="5:7">
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-    </row>
-    <row r="26" ht="16.5" spans="5:8">
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="47"/>
-    </row>
-    <row r="27" ht="16.5" spans="5:8">
-      <c r="E27" s="74"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-    </row>
-    <row r="28" ht="16.5" spans="5:8">
-      <c r="E28" s="74"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="47"/>
-    </row>
-    <row r="29" ht="16.5" spans="5:8">
-      <c r="E29" s="74"/>
-      <c r="H29" s="49"/>
-    </row>
-    <row r="30" ht="16.5" spans="5:8">
-      <c r="E30" s="74"/>
-      <c r="H30" s="47"/>
-    </row>
-    <row r="31" ht="16.5" spans="8:8">
-      <c r="H31" s="47"/>
-    </row>
-    <row r="32" ht="16.5" spans="8:8">
-      <c r="H32" s="47"/>
-    </row>
-    <row r="33" ht="16.5" spans="8:8">
-      <c r="H33" s="47"/>
-    </row>
-    <row r="34" ht="16.5" spans="8:8">
-      <c r="H34" s="47"/>
-    </row>
-    <row r="35" ht="18" spans="8:8">
-      <c r="H35" s="50"/>
+      <c r="H23" s="56"/>
+    </row>
+    <row r="24" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+    </row>
+    <row r="25" spans="1:11" s="2" customFormat="1" ht="16.5">
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5">
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5">
+      <c r="E27" s="61"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5">
+      <c r="E28" s="61"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5">
+      <c r="E29" s="61"/>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5">
+      <c r="E30" s="61"/>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5">
+      <c r="H31" s="39"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5">
+      <c r="H32" s="39"/>
+    </row>
+    <row r="33" spans="8:8" ht="16.5">
+      <c r="H33" s="39"/>
+    </row>
+    <row r="34" spans="8:8" ht="16.5">
+      <c r="H34" s="39"/>
+    </row>
+    <row r="35" spans="8:8" ht="18">
+      <c r="H35" s="42"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="51"/>
+      <c r="H36" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H24">
@@ -4042,19 +3817,18 @@
     <mergeCell ref="A6:A15"/>
     <mergeCell ref="A16:A22"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4062,235 +3836,211 @@
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="5.4" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="60" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.46666666666667" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="48" customHeight="1" spans="1:8">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="96"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="15">
-        <v>43254.3541666667</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="11">
+        <v>43254.354166666701</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>5</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="12">
         <f>D3*100</f>
         <v>500</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="15">
         <f>F3*0.8</f>
         <v>400</v>
       </c>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22">
-        <v>43261.3541666667</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="16.5">
+      <c r="A4" s="106"/>
+      <c r="B4" s="17">
+        <v>43261.354166666701</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="18">
         <v>4</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="18">
         <f>D4*100</f>
         <v>400</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="18">
         <f>F4*0.8</f>
         <v>320</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A5" s="21"/>
-      <c r="B5" s="26">
-        <v>43268.3541666667</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="106"/>
+      <c r="B5" s="21">
+        <v>43268.354166666701</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="18">
         <v>5</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="24">
         <f>D5*100</f>
         <v>500</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="25">
         <f>F5*0.8</f>
         <v>400</v>
       </c>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" spans="1:8">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33">
-        <v>43275.3541666667</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="17.25">
+      <c r="A6" s="107"/>
+      <c r="B6" s="27">
+        <v>43275.354166666701</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="29">
         <v>7</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="31">
         <f>D6*100</f>
         <v>700</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="32">
         <f>F6*0.8</f>
         <v>560</v>
       </c>
-      <c r="H6" s="39"/>
-    </row>
-    <row r="7" customFormat="1" ht="17.25" spans="1:8">
-      <c r="A7" s="40" t="s">
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="A7" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42">
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="34">
         <f>SUM(D3:D6)</f>
         <v>21</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="42">
+      <c r="E7" s="35"/>
+      <c r="F7" s="34">
         <f>SUM(F3:F6)</f>
         <v>2100</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="34">
         <f>SUM(G3:G6)</f>
         <v>1680</v>
       </c>
-      <c r="H7" s="44"/>
-    </row>
-    <row r="8" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E9" s="45"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" customFormat="1" ht="17.25" spans="5:9">
-      <c r="E10" s="45"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="53"/>
-    </row>
-    <row r="11" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E11" s="45"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="47"/>
-    </row>
-    <row r="14" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="47"/>
-    </row>
-    <row r="15" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="47"/>
-    </row>
-    <row r="16" customFormat="1" ht="18" spans="5:8">
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="50"/>
-    </row>
-    <row r="17" customFormat="1" spans="5:8">
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:3">
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="E9" s="37"/>
+      <c r="F9" s="40"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
+      <c r="E10" s="37"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="E11" s="37"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5">
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5">
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5">
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:9" ht="18">
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="H17" s="43"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4301,7 +4051,7 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A3:A6"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>